--- a/Exercise 3 -- Multi-algorithm simulation/Model.xlsx
+++ b/Exercise 3 -- Multi-algorithm simulation/Model.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23515"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="570" windowWidth="19815" windowHeight="5835" activeTab="3"/>
+    <workbookView xWindow="-23140" yWindow="-440" windowWidth="22140" windowHeight="17780" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Submodels" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,12 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Species!$A$1:$L$147</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Submodels!$A$1:$C$5</definedName>
   </definedNames>
-  <calcPr calcId="145621" iterateDelta="1E-4"/>
+  <calcPr calcId="140001" iterateDelta="1E-4" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -3333,7 +3338,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000E+00"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -3361,6 +3366,22 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -3385,8 +3406,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -3415,7 +3438,9 @@
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -3792,15 +3817,15 @@
       <selection pane="bottomRight" activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" width="14.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" s="6" customFormat="1" ht="15" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3811,7 +3836,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="15" customHeight="1">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -3822,7 +3847,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="15" customHeight="1">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
@@ -3833,7 +3858,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="15" customHeight="1">
       <c r="A4" s="3" t="s">
         <v>8</v>
       </c>
@@ -3844,7 +3869,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="15" customHeight="1">
       <c r="A5" s="3" t="s">
         <v>9</v>
       </c>
@@ -3858,30 +3883,35 @@
   </sheetData>
   <autoFilter ref="A1:C5"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C20" sqref="C20"/>
+      <selection pane="bottomRight" activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="5.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.1640625" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="43.5703125" style="3" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="3"/>
+    <col min="3" max="3" width="12.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="60.33203125" style="3" customWidth="1"/>
+    <col min="5" max="16384" width="8.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" s="6" customFormat="1" ht="30" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3895,7 +3925,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="24">
       <c r="A2" s="3" t="s">
         <v>12</v>
       </c>
@@ -3909,7 +3939,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="24">
       <c r="A3" s="3" t="s">
         <v>15</v>
       </c>
@@ -3923,9 +3953,15 @@
         <v>17</v>
       </c>
     </row>
+    <row r="4" spans="1:4" ht="12"/>
   </sheetData>
   <autoFilter ref="A1:D3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -3933,28 +3969,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L147"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B139" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A147" sqref="A147"/>
+      <selection pane="bottomRight" activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="2" width="9.140625" style="3"/>
-    <col min="3" max="3" width="14.42578125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="10.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="18.28515625" style="3" customWidth="1"/>
-    <col min="10" max="11" width="10.42578125" style="3" customWidth="1"/>
-    <col min="12" max="12" width="22.85546875" style="3" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="2" width="8.83203125" style="3"/>
+    <col min="3" max="3" width="14.5" style="3" customWidth="1"/>
+    <col min="4" max="4" width="11.5" style="3" customWidth="1"/>
+    <col min="5" max="5" width="10.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="18.33203125" style="3" customWidth="1"/>
+    <col min="10" max="11" width="10.5" style="3" customWidth="1"/>
+    <col min="12" max="12" width="22.83203125" style="3" customWidth="1"/>
+    <col min="13" max="16384" width="8.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="6" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" s="6" customFormat="1" ht="45" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3992,7 +4028,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="15" customHeight="1">
       <c r="A2" s="3" t="s">
         <v>267</v>
       </c>
@@ -4013,7 +4049,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="15" customHeight="1">
       <c r="A3" s="3" t="s">
         <v>269</v>
       </c>
@@ -4029,7 +4065,7 @@
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
     </row>
-    <row r="4" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="15" customHeight="1">
       <c r="A4" s="3" t="s">
         <v>45</v>
       </c>
@@ -4047,7 +4083,7 @@
       </c>
       <c r="I4" s="4"/>
     </row>
-    <row r="5" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="15" customHeight="1">
       <c r="A5" s="3" t="s">
         <v>270</v>
       </c>
@@ -4068,7 +4104,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="15" customHeight="1">
       <c r="A6" s="3" t="s">
         <v>34</v>
       </c>
@@ -4086,7 +4122,7 @@
       </c>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="15" customHeight="1">
       <c r="A7" s="3" t="s">
         <v>47</v>
       </c>
@@ -4104,7 +4140,7 @@
       </c>
       <c r="I7" s="4"/>
     </row>
-    <row r="8" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" ht="15" customHeight="1">
       <c r="A8" s="3" t="s">
         <v>272</v>
       </c>
@@ -4125,7 +4161,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" ht="15" customHeight="1">
       <c r="A9" s="3" t="s">
         <v>51</v>
       </c>
@@ -4143,7 +4179,7 @@
       </c>
       <c r="I9" s="4"/>
     </row>
-    <row r="10" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" ht="15" customHeight="1">
       <c r="A10" s="3" t="s">
         <v>274</v>
       </c>
@@ -4164,7 +4200,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" ht="15" customHeight="1">
       <c r="A11" s="3" t="s">
         <v>49</v>
       </c>
@@ -4182,7 +4218,7 @@
       </c>
       <c r="I11" s="4"/>
     </row>
-    <row r="12" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" ht="15" customHeight="1">
       <c r="A12" s="3" t="s">
         <v>276</v>
       </c>
@@ -4203,7 +4239,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" ht="15" customHeight="1">
       <c r="A13" s="3" t="s">
         <v>27</v>
       </c>
@@ -4221,7 +4257,7 @@
       </c>
       <c r="I13" s="4"/>
     </row>
-    <row r="14" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" ht="15" customHeight="1">
       <c r="A14" s="3" t="s">
         <v>278</v>
       </c>
@@ -4237,7 +4273,7 @@
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
     </row>
-    <row r="15" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" ht="15" customHeight="1">
       <c r="A15" s="3" t="s">
         <v>35</v>
       </c>
@@ -4255,7 +4291,7 @@
       </c>
       <c r="I15" s="4"/>
     </row>
-    <row r="16" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" ht="15" customHeight="1">
       <c r="A16" s="3" t="s">
         <v>279</v>
       </c>
@@ -4276,7 +4312,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" ht="15" customHeight="1">
       <c r="A17" s="3" t="s">
         <v>29</v>
       </c>
@@ -4294,7 +4330,7 @@
       </c>
       <c r="I17" s="4"/>
     </row>
-    <row r="18" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" ht="15" customHeight="1">
       <c r="A18" s="3" t="s">
         <v>53</v>
       </c>
@@ -4312,7 +4348,7 @@
       </c>
       <c r="I18" s="4"/>
     </row>
-    <row r="19" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" ht="15" customHeight="1">
       <c r="A19" s="3" t="s">
         <v>284</v>
       </c>
@@ -4333,7 +4369,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" ht="15" customHeight="1">
       <c r="A20" s="3" t="s">
         <v>282</v>
       </c>
@@ -4354,7 +4390,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" ht="15" customHeight="1">
       <c r="A21" s="3" t="s">
         <v>286</v>
       </c>
@@ -4370,7 +4406,7 @@
       <c r="H21" s="4"/>
       <c r="I21" s="4"/>
     </row>
-    <row r="22" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" ht="15" customHeight="1">
       <c r="A22" s="3" t="s">
         <v>288</v>
       </c>
@@ -4386,7 +4422,7 @@
       <c r="H22" s="4"/>
       <c r="I22" s="4"/>
     </row>
-    <row r="23" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" ht="15" customHeight="1">
       <c r="A23" s="3" t="s">
         <v>290</v>
       </c>
@@ -4402,7 +4438,7 @@
       <c r="H23" s="4"/>
       <c r="I23" s="4"/>
     </row>
-    <row r="24" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" ht="15" customHeight="1">
       <c r="A24" s="3" t="s">
         <v>292</v>
       </c>
@@ -4418,7 +4454,7 @@
       <c r="H24" s="4"/>
       <c r="I24" s="4"/>
     </row>
-    <row r="25" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" ht="15" customHeight="1">
       <c r="A25" s="3" t="s">
         <v>294</v>
       </c>
@@ -4434,7 +4470,7 @@
       <c r="H25" s="4"/>
       <c r="I25" s="4"/>
     </row>
-    <row r="26" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" ht="15" customHeight="1">
       <c r="A26" s="3" t="s">
         <v>296</v>
       </c>
@@ -4450,7 +4486,7 @@
       <c r="H26" s="4"/>
       <c r="I26" s="4"/>
     </row>
-    <row r="27" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" ht="15" customHeight="1">
       <c r="A27" s="3" t="s">
         <v>298</v>
       </c>
@@ -4466,7 +4502,7 @@
       <c r="H27" s="4"/>
       <c r="I27" s="4"/>
     </row>
-    <row r="28" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" ht="15" customHeight="1">
       <c r="A28" s="3" t="s">
         <v>33</v>
       </c>
@@ -4484,7 +4520,7 @@
       </c>
       <c r="I28" s="4"/>
     </row>
-    <row r="29" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" ht="15" customHeight="1">
       <c r="A29" s="3" t="s">
         <v>300</v>
       </c>
@@ -4505,7 +4541,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" ht="15" customHeight="1">
       <c r="A30" s="3" t="s">
         <v>55</v>
       </c>
@@ -4523,7 +4559,7 @@
       </c>
       <c r="I30" s="4"/>
     </row>
-    <row r="31" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" ht="15" customHeight="1">
       <c r="A31" s="3" t="s">
         <v>305</v>
       </c>
@@ -4544,7 +4580,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="32" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" ht="15" customHeight="1">
       <c r="A32" s="3" t="s">
         <v>57</v>
       </c>
@@ -4562,7 +4598,7 @@
       </c>
       <c r="I32" s="4"/>
     </row>
-    <row r="33" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" ht="15" customHeight="1">
       <c r="A33" s="3" t="s">
         <v>307</v>
       </c>
@@ -4583,7 +4619,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" ht="15" customHeight="1">
       <c r="A34" s="3" t="s">
         <v>59</v>
       </c>
@@ -4601,7 +4637,7 @@
       </c>
       <c r="I34" s="4"/>
     </row>
-    <row r="35" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" ht="15" customHeight="1">
       <c r="A35" s="3" t="s">
         <v>309</v>
       </c>
@@ -4622,7 +4658,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="36" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" ht="15" customHeight="1">
       <c r="A36" s="3" t="s">
         <v>36</v>
       </c>
@@ -4640,7 +4676,7 @@
       </c>
       <c r="I36" s="4"/>
     </row>
-    <row r="37" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" ht="15" customHeight="1">
       <c r="A37" s="3" t="s">
         <v>302</v>
       </c>
@@ -4661,7 +4697,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="38" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" ht="15" customHeight="1">
       <c r="A38" s="3" t="s">
         <v>30</v>
       </c>
@@ -4679,7 +4715,7 @@
       </c>
       <c r="I38" s="4"/>
     </row>
-    <row r="39" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" ht="15" customHeight="1">
       <c r="A39" s="3" t="s">
         <v>38</v>
       </c>
@@ -4702,7 +4738,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="40" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" ht="15" customHeight="1">
       <c r="A40" s="3" t="s">
         <v>43</v>
       </c>
@@ -4725,7 +4761,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="41" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" ht="15" customHeight="1">
       <c r="A41" s="3" t="s">
         <v>61</v>
       </c>
@@ -4743,7 +4779,7 @@
       </c>
       <c r="I41" s="4"/>
     </row>
-    <row r="42" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" ht="15" customHeight="1">
       <c r="A42" s="3" t="s">
         <v>311</v>
       </c>
@@ -4764,7 +4800,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="43" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" ht="15" customHeight="1">
       <c r="A43" s="3" t="s">
         <v>63</v>
       </c>
@@ -4782,7 +4818,7 @@
       </c>
       <c r="I43" s="4"/>
     </row>
-    <row r="44" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" ht="15" customHeight="1">
       <c r="A44" s="3" t="s">
         <v>313</v>
       </c>
@@ -4803,7 +4839,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="45" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" ht="15" customHeight="1">
       <c r="A45" s="3" t="s">
         <v>315</v>
       </c>
@@ -4819,7 +4855,7 @@
       <c r="H45" s="4"/>
       <c r="I45" s="4"/>
     </row>
-    <row r="46" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" ht="15" customHeight="1">
       <c r="A46" s="3" t="s">
         <v>65</v>
       </c>
@@ -4837,7 +4873,7 @@
       </c>
       <c r="I46" s="4"/>
     </row>
-    <row r="47" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" ht="15" customHeight="1">
       <c r="A47" s="3" t="s">
         <v>317</v>
       </c>
@@ -4858,7 +4894,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="48" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" ht="15" customHeight="1">
       <c r="A48" s="3" t="s">
         <v>67</v>
       </c>
@@ -4876,7 +4912,7 @@
       </c>
       <c r="I48" s="4"/>
     </row>
-    <row r="49" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" ht="15" customHeight="1">
       <c r="A49" s="3" t="s">
         <v>319</v>
       </c>
@@ -4897,7 +4933,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="50" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" ht="15" customHeight="1">
       <c r="A50" s="3" t="s">
         <v>69</v>
       </c>
@@ -4915,7 +4951,7 @@
       </c>
       <c r="I50" s="4"/>
     </row>
-    <row r="51" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12" ht="15" customHeight="1">
       <c r="A51" s="3" t="s">
         <v>321</v>
       </c>
@@ -4936,7 +4972,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="52" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12" ht="15" customHeight="1">
       <c r="A52" s="3" t="s">
         <v>323</v>
       </c>
@@ -4957,7 +4993,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="53" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12" ht="15" customHeight="1">
       <c r="A53" s="3" t="s">
         <v>325</v>
       </c>
@@ -4973,7 +5009,7 @@
       <c r="H53" s="4"/>
       <c r="I53" s="4"/>
     </row>
-    <row r="54" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12" ht="15" customHeight="1">
       <c r="A54" s="3" t="s">
         <v>327</v>
       </c>
@@ -4994,7 +5030,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="55" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12" ht="15" customHeight="1">
       <c r="A55" s="3" t="s">
         <v>330</v>
       </c>
@@ -5010,7 +5046,7 @@
       <c r="H55" s="4"/>
       <c r="I55" s="4"/>
     </row>
-    <row r="56" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12" ht="15" customHeight="1">
       <c r="A56" s="3" t="s">
         <v>71</v>
       </c>
@@ -5028,7 +5064,7 @@
       </c>
       <c r="I56" s="4"/>
     </row>
-    <row r="57" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12" ht="15" customHeight="1">
       <c r="A57" s="3" t="s">
         <v>340</v>
       </c>
@@ -5049,7 +5085,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="58" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:12" ht="15" customHeight="1">
       <c r="A58" s="3" t="s">
         <v>41</v>
       </c>
@@ -5072,7 +5108,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="59" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:12" ht="15" customHeight="1">
       <c r="A59" s="3" t="s">
         <v>332</v>
       </c>
@@ -5093,7 +5129,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="60" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:12" ht="15" customHeight="1">
       <c r="A60" s="3" t="s">
         <v>40</v>
       </c>
@@ -5111,7 +5147,7 @@
       </c>
       <c r="I60" s="4"/>
     </row>
-    <row r="61" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:12" ht="15" customHeight="1">
       <c r="A61" s="3" t="s">
         <v>334</v>
       </c>
@@ -5127,7 +5163,7 @@
       <c r="H61" s="4"/>
       <c r="I61" s="4"/>
     </row>
-    <row r="62" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:12" ht="15" customHeight="1">
       <c r="A62" s="3" t="s">
         <v>73</v>
       </c>
@@ -5145,7 +5181,7 @@
       </c>
       <c r="I62" s="4"/>
     </row>
-    <row r="63" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:12" ht="15" customHeight="1">
       <c r="A63" s="3" t="s">
         <v>342</v>
       </c>
@@ -5166,7 +5202,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="64" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:12" ht="15" customHeight="1">
       <c r="A64" s="3" t="s">
         <v>336</v>
       </c>
@@ -5182,7 +5218,7 @@
       <c r="H64" s="4"/>
       <c r="I64" s="4"/>
     </row>
-    <row r="65" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:12" ht="15" customHeight="1">
       <c r="A65" s="3" t="s">
         <v>338</v>
       </c>
@@ -5198,7 +5234,7 @@
       <c r="H65" s="4"/>
       <c r="I65" s="4"/>
     </row>
-    <row r="66" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:12" ht="15" customHeight="1">
       <c r="A66" s="3" t="s">
         <v>344</v>
       </c>
@@ -5214,7 +5250,7 @@
       <c r="H66" s="4"/>
       <c r="I66" s="4"/>
     </row>
-    <row r="67" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:12" ht="15" customHeight="1">
       <c r="A67" s="3" t="s">
         <v>346</v>
       </c>
@@ -5230,7 +5266,7 @@
       <c r="H67" s="4"/>
       <c r="I67" s="4"/>
     </row>
-    <row r="68" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:12" ht="15" customHeight="1">
       <c r="A68" s="3" t="s">
         <v>348</v>
       </c>
@@ -5246,7 +5282,7 @@
       <c r="H68" s="4"/>
       <c r="I68" s="4"/>
     </row>
-    <row r="69" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:12" ht="15" customHeight="1">
       <c r="A69" s="3" t="s">
         <v>75</v>
       </c>
@@ -5264,7 +5300,7 @@
       </c>
       <c r="I69" s="4"/>
     </row>
-    <row r="70" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:12" ht="15" customHeight="1">
       <c r="A70" s="3" t="s">
         <v>350</v>
       </c>
@@ -5285,7 +5321,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="71" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:12" ht="15" customHeight="1">
       <c r="A71" s="3" t="s">
         <v>352</v>
       </c>
@@ -5301,7 +5337,7 @@
       <c r="H71" s="4"/>
       <c r="I71" s="4"/>
     </row>
-    <row r="72" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:12" ht="15" customHeight="1">
       <c r="A72" s="3" t="s">
         <v>354</v>
       </c>
@@ -5317,7 +5353,7 @@
       <c r="H72" s="4"/>
       <c r="I72" s="4"/>
     </row>
-    <row r="73" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:12" ht="15" customHeight="1">
       <c r="A73" s="3" t="s">
         <v>77</v>
       </c>
@@ -5335,7 +5371,7 @@
       </c>
       <c r="I73" s="4"/>
     </row>
-    <row r="74" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:12" ht="15" customHeight="1">
       <c r="A74" s="3" t="s">
         <v>356</v>
       </c>
@@ -5356,7 +5392,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="75" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:12" ht="15" customHeight="1">
       <c r="A75" s="3" t="s">
         <v>79</v>
       </c>
@@ -5374,7 +5410,7 @@
       </c>
       <c r="I75" s="4"/>
     </row>
-    <row r="76" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:12" ht="15" customHeight="1">
       <c r="A76" s="3" t="s">
         <v>358</v>
       </c>
@@ -5395,7 +5431,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="77" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:12" ht="15" customHeight="1">
       <c r="A77" s="3" t="s">
         <v>81</v>
       </c>
@@ -5413,7 +5449,7 @@
       </c>
       <c r="I77" s="4"/>
     </row>
-    <row r="78" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:12" ht="15" customHeight="1">
       <c r="A78" s="3" t="s">
         <v>360</v>
       </c>
@@ -5434,7 +5470,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="79" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:12" ht="15" customHeight="1">
       <c r="A79" s="3" t="s">
         <v>362</v>
       </c>
@@ -5450,7 +5486,7 @@
       <c r="H79" s="4"/>
       <c r="I79" s="4"/>
     </row>
-    <row r="80" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:12" ht="15" customHeight="1">
       <c r="A80" s="3" t="s">
         <v>37</v>
       </c>
@@ -5468,7 +5504,7 @@
       </c>
       <c r="I80" s="4"/>
     </row>
-    <row r="81" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:12" ht="15" customHeight="1">
       <c r="A81" s="3" t="s">
         <v>363</v>
       </c>
@@ -5489,7 +5525,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="82" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:12" ht="15" customHeight="1">
       <c r="A82" s="3" t="s">
         <v>366</v>
       </c>
@@ -5505,7 +5541,7 @@
       <c r="H82" s="4"/>
       <c r="I82" s="4"/>
     </row>
-    <row r="83" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:12" ht="15" customHeight="1">
       <c r="A83" s="3" t="s">
         <v>31</v>
       </c>
@@ -5528,7 +5564,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="84" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:12" ht="15" customHeight="1">
       <c r="A84" s="3" t="s">
         <v>83</v>
       </c>
@@ -5546,7 +5582,7 @@
       </c>
       <c r="I84" s="4"/>
     </row>
-    <row r="85" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:12" ht="15" customHeight="1">
       <c r="A85" s="3" t="s">
         <v>368</v>
       </c>
@@ -5567,7 +5603,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="86" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:12" ht="15" customHeight="1">
       <c r="A86" s="3" t="s">
         <v>370</v>
       </c>
@@ -5582,7 +5618,7 @@
       </c>
       <c r="H86" s="4"/>
     </row>
-    <row r="87" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:12" ht="15" customHeight="1">
       <c r="A87" s="3" t="s">
         <v>95</v>
       </c>
@@ -5603,7 +5639,7 @@
       </c>
       <c r="I87" s="4"/>
     </row>
-    <row r="88" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:12" ht="15" customHeight="1">
       <c r="A88" s="3" t="s">
         <v>98</v>
       </c>
@@ -5624,7 +5660,7 @@
       </c>
       <c r="I88" s="4"/>
     </row>
-    <row r="89" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:12" ht="15" customHeight="1">
       <c r="A89" s="3" t="s">
         <v>101</v>
       </c>
@@ -5645,7 +5681,7 @@
       </c>
       <c r="I89" s="4"/>
     </row>
-    <row r="90" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:12" ht="15" customHeight="1">
       <c r="A90" s="3" t="s">
         <v>104</v>
       </c>
@@ -5666,7 +5702,7 @@
       </c>
       <c r="I90" s="4"/>
     </row>
-    <row r="91" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:12" ht="15" customHeight="1">
       <c r="A91" s="3" t="s">
         <v>107</v>
       </c>
@@ -5687,7 +5723,7 @@
       </c>
       <c r="I91" s="4"/>
     </row>
-    <row r="92" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:12" ht="15" customHeight="1">
       <c r="A92" s="3" t="s">
         <v>110</v>
       </c>
@@ -5708,7 +5744,7 @@
       </c>
       <c r="I92" s="4"/>
     </row>
-    <row r="93" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:12" ht="15" customHeight="1">
       <c r="A93" s="3" t="s">
         <v>116</v>
       </c>
@@ -5729,7 +5765,7 @@
       </c>
       <c r="I93" s="4"/>
     </row>
-    <row r="94" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:12" ht="15" customHeight="1">
       <c r="A94" s="3" t="s">
         <v>119</v>
       </c>
@@ -5750,7 +5786,7 @@
       </c>
       <c r="I94" s="4"/>
     </row>
-    <row r="95" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:12" ht="15" customHeight="1">
       <c r="A95" s="3" t="s">
         <v>149</v>
       </c>
@@ -5771,7 +5807,7 @@
       </c>
       <c r="I95" s="4"/>
     </row>
-    <row r="96" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:12" ht="15" customHeight="1">
       <c r="A96" s="3" t="s">
         <v>122</v>
       </c>
@@ -5792,7 +5828,7 @@
       </c>
       <c r="I96" s="4"/>
     </row>
-    <row r="97" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9" ht="15" customHeight="1">
       <c r="A97" s="3" t="s">
         <v>125</v>
       </c>
@@ -5813,7 +5849,7 @@
       </c>
       <c r="I97" s="4"/>
     </row>
-    <row r="98" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:9" ht="15" customHeight="1">
       <c r="A98" s="3" t="s">
         <v>173</v>
       </c>
@@ -5834,7 +5870,7 @@
       </c>
       <c r="I98" s="4"/>
     </row>
-    <row r="99" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9" ht="15" customHeight="1">
       <c r="A99" s="3" t="s">
         <v>128</v>
       </c>
@@ -5855,7 +5891,7 @@
       </c>
       <c r="I99" s="4"/>
     </row>
-    <row r="100" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:9" ht="15" customHeight="1">
       <c r="A100" s="3" t="s">
         <v>131</v>
       </c>
@@ -5876,7 +5912,7 @@
       </c>
       <c r="I100" s="4"/>
     </row>
-    <row r="101" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:9" ht="15" customHeight="1">
       <c r="A101" s="3" t="s">
         <v>134</v>
       </c>
@@ -5897,7 +5933,7 @@
       </c>
       <c r="I101" s="4"/>
     </row>
-    <row r="102" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:9" ht="15" customHeight="1">
       <c r="A102" s="3" t="s">
         <v>113</v>
       </c>
@@ -5918,7 +5954,7 @@
       </c>
       <c r="I102" s="4"/>
     </row>
-    <row r="103" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:9" ht="15" customHeight="1">
       <c r="A103" s="3" t="s">
         <v>170</v>
       </c>
@@ -5939,7 +5975,7 @@
       </c>
       <c r="I103" s="4"/>
     </row>
-    <row r="104" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:9" ht="15" customHeight="1">
       <c r="A104" s="3" t="s">
         <v>137</v>
       </c>
@@ -5960,7 +5996,7 @@
       </c>
       <c r="I104" s="4"/>
     </row>
-    <row r="105" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:9" ht="15" customHeight="1">
       <c r="A105" s="3" t="s">
         <v>140</v>
       </c>
@@ -5981,7 +6017,7 @@
       </c>
       <c r="I105" s="4"/>
     </row>
-    <row r="106" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:9" ht="15" customHeight="1">
       <c r="A106" s="3" t="s">
         <v>167</v>
       </c>
@@ -6002,7 +6038,7 @@
       </c>
       <c r="I106" s="4"/>
     </row>
-    <row r="107" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:9" ht="15" customHeight="1">
       <c r="A107" s="3" t="s">
         <v>143</v>
       </c>
@@ -6023,7 +6059,7 @@
       </c>
       <c r="I107" s="4"/>
     </row>
-    <row r="108" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:9" ht="15" customHeight="1">
       <c r="A108" s="3" t="s">
         <v>161</v>
       </c>
@@ -6044,7 +6080,7 @@
       </c>
       <c r="I108" s="4"/>
     </row>
-    <row r="109" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:9" ht="15" customHeight="1">
       <c r="A109" s="3" t="s">
         <v>89</v>
       </c>
@@ -6065,7 +6101,7 @@
       </c>
       <c r="I109" s="4"/>
     </row>
-    <row r="110" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:9" ht="15" customHeight="1">
       <c r="A110" s="3" t="s">
         <v>85</v>
       </c>
@@ -6086,7 +6122,7 @@
       </c>
       <c r="I110" s="4"/>
     </row>
-    <row r="111" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:9" ht="15" customHeight="1">
       <c r="A111" s="3" t="s">
         <v>92</v>
       </c>
@@ -6107,7 +6143,7 @@
       </c>
       <c r="I111" s="4"/>
     </row>
-    <row r="112" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:9" ht="15" customHeight="1">
       <c r="A112" s="3" t="s">
         <v>146</v>
       </c>
@@ -6128,7 +6164,7 @@
       </c>
       <c r="I112" s="4"/>
     </row>
-    <row r="113" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:9" ht="15" customHeight="1">
       <c r="A113" s="3" t="s">
         <v>152</v>
       </c>
@@ -6149,7 +6185,7 @@
       </c>
       <c r="I113" s="4"/>
     </row>
-    <row r="114" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:9" ht="15" customHeight="1">
       <c r="A114" s="3" t="s">
         <v>155</v>
       </c>
@@ -6170,7 +6206,7 @@
       </c>
       <c r="I114" s="4"/>
     </row>
-    <row r="115" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:9" ht="15" customHeight="1">
       <c r="A115" s="3" t="s">
         <v>158</v>
       </c>
@@ -6191,7 +6227,7 @@
       </c>
       <c r="I115" s="4"/>
     </row>
-    <row r="116" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:9" ht="15" customHeight="1">
       <c r="A116" s="3" t="s">
         <v>164</v>
       </c>
@@ -6212,7 +6248,7 @@
       </c>
       <c r="I116" s="4"/>
     </row>
-    <row r="117" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:9" ht="15" customHeight="1">
       <c r="A117" s="3" t="s">
         <v>186</v>
       </c>
@@ -6233,7 +6269,7 @@
       </c>
       <c r="I117" s="4"/>
     </row>
-    <row r="118" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:9" ht="15" customHeight="1">
       <c r="A118" s="3" t="s">
         <v>189</v>
       </c>
@@ -6254,7 +6290,7 @@
       </c>
       <c r="I118" s="4"/>
     </row>
-    <row r="119" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:9" ht="15" customHeight="1">
       <c r="A119" s="3" t="s">
         <v>192</v>
       </c>
@@ -6275,7 +6311,7 @@
       </c>
       <c r="I119" s="4"/>
     </row>
-    <row r="120" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:9" ht="15" customHeight="1">
       <c r="A120" s="3" t="s">
         <v>195</v>
       </c>
@@ -6296,7 +6332,7 @@
       </c>
       <c r="I120" s="4"/>
     </row>
-    <row r="121" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:9" ht="15" customHeight="1">
       <c r="A121" s="3" t="s">
         <v>198</v>
       </c>
@@ -6317,7 +6353,7 @@
       </c>
       <c r="I121" s="4"/>
     </row>
-    <row r="122" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:9" ht="15" customHeight="1">
       <c r="A122" s="3" t="s">
         <v>201</v>
       </c>
@@ -6338,7 +6374,7 @@
       </c>
       <c r="I122" s="4"/>
     </row>
-    <row r="123" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:9" ht="15" customHeight="1">
       <c r="A123" s="3" t="s">
         <v>207</v>
       </c>
@@ -6359,7 +6395,7 @@
       </c>
       <c r="I123" s="4"/>
     </row>
-    <row r="124" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:9" ht="15" customHeight="1">
       <c r="A124" s="3" t="s">
         <v>210</v>
       </c>
@@ -6380,7 +6416,7 @@
       </c>
       <c r="I124" s="4"/>
     </row>
-    <row r="125" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:9" ht="15" customHeight="1">
       <c r="A125" s="3" t="s">
         <v>240</v>
       </c>
@@ -6401,7 +6437,7 @@
       </c>
       <c r="I125" s="4"/>
     </row>
-    <row r="126" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:9" ht="15" customHeight="1">
       <c r="A126" s="3" t="s">
         <v>213</v>
       </c>
@@ -6422,7 +6458,7 @@
       </c>
       <c r="I126" s="4"/>
     </row>
-    <row r="127" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:9" ht="15" customHeight="1">
       <c r="A127" s="3" t="s">
         <v>216</v>
       </c>
@@ -6443,7 +6479,7 @@
       </c>
       <c r="I127" s="4"/>
     </row>
-    <row r="128" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:9" ht="15" customHeight="1">
       <c r="A128" s="3" t="s">
         <v>264</v>
       </c>
@@ -6464,7 +6500,7 @@
       </c>
       <c r="I128" s="4"/>
     </row>
-    <row r="129" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:9" ht="15" customHeight="1">
       <c r="A129" s="3" t="s">
         <v>219</v>
       </c>
@@ -6485,7 +6521,7 @@
       </c>
       <c r="I129" s="4"/>
     </row>
-    <row r="130" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:9" ht="15" customHeight="1">
       <c r="A130" s="3" t="s">
         <v>222</v>
       </c>
@@ -6506,7 +6542,7 @@
       </c>
       <c r="I130" s="4"/>
     </row>
-    <row r="131" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:9" ht="15" customHeight="1">
       <c r="A131" s="3" t="s">
         <v>225</v>
       </c>
@@ -6527,7 +6563,7 @@
       </c>
       <c r="I131" s="4"/>
     </row>
-    <row r="132" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:9" ht="15" customHeight="1">
       <c r="A132" s="3" t="s">
         <v>204</v>
       </c>
@@ -6548,7 +6584,7 @@
       </c>
       <c r="I132" s="4"/>
     </row>
-    <row r="133" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:9" ht="15" customHeight="1">
       <c r="A133" s="3" t="s">
         <v>261</v>
       </c>
@@ -6569,7 +6605,7 @@
       </c>
       <c r="I133" s="4"/>
     </row>
-    <row r="134" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:9" ht="15" customHeight="1">
       <c r="A134" s="3" t="s">
         <v>228</v>
       </c>
@@ -6590,7 +6626,7 @@
       </c>
       <c r="I134" s="4"/>
     </row>
-    <row r="135" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:9" ht="15" customHeight="1">
       <c r="A135" s="3" t="s">
         <v>231</v>
       </c>
@@ -6611,7 +6647,7 @@
       </c>
       <c r="I135" s="4"/>
     </row>
-    <row r="136" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:9" ht="15" customHeight="1">
       <c r="A136" s="3" t="s">
         <v>258</v>
       </c>
@@ -6632,7 +6668,7 @@
       </c>
       <c r="I136" s="4"/>
     </row>
-    <row r="137" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:9" ht="15" customHeight="1">
       <c r="A137" s="3" t="s">
         <v>234</v>
       </c>
@@ -6653,7 +6689,7 @@
       </c>
       <c r="I137" s="4"/>
     </row>
-    <row r="138" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:9" ht="15" customHeight="1">
       <c r="A138" s="3" t="s">
         <v>252</v>
       </c>
@@ -6674,7 +6710,7 @@
       </c>
       <c r="I138" s="4"/>
     </row>
-    <row r="139" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:9" ht="15" customHeight="1">
       <c r="A139" s="3" t="s">
         <v>180</v>
       </c>
@@ -6695,7 +6731,7 @@
       </c>
       <c r="I139" s="4"/>
     </row>
-    <row r="140" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:9" ht="15" customHeight="1">
       <c r="A140" s="3" t="s">
         <v>176</v>
       </c>
@@ -6716,7 +6752,7 @@
       </c>
       <c r="I140" s="4"/>
     </row>
-    <row r="141" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:9" ht="15" customHeight="1">
       <c r="A141" s="3" t="s">
         <v>183</v>
       </c>
@@ -6737,7 +6773,7 @@
       </c>
       <c r="I141" s="4"/>
     </row>
-    <row r="142" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:9" ht="15" customHeight="1">
       <c r="A142" s="3" t="s">
         <v>237</v>
       </c>
@@ -6758,7 +6794,7 @@
       </c>
       <c r="I142" s="4"/>
     </row>
-    <row r="143" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:9" ht="15" customHeight="1">
       <c r="A143" s="3" t="s">
         <v>243</v>
       </c>
@@ -6779,7 +6815,7 @@
       </c>
       <c r="I143" s="4"/>
     </row>
-    <row r="144" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:9" ht="15" customHeight="1">
       <c r="A144" s="3" t="s">
         <v>246</v>
       </c>
@@ -6800,7 +6836,7 @@
       </c>
       <c r="I144" s="4"/>
     </row>
-    <row r="145" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:9" ht="15" customHeight="1">
       <c r="A145" s="3" t="s">
         <v>249</v>
       </c>
@@ -6821,7 +6857,7 @@
       </c>
       <c r="I145" s="4"/>
     </row>
-    <row r="146" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:9" ht="15" customHeight="1">
       <c r="A146" s="3" t="s">
         <v>255</v>
       </c>
@@ -6842,7 +6878,7 @@
       </c>
       <c r="I146" s="4"/>
     </row>
-    <row r="147" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:9" ht="15" customHeight="1">
       <c r="A147" s="3" t="s">
         <v>372</v>
       </c>
@@ -6855,7 +6891,12 @@
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -6863,29 +6904,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K177"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B76" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B43" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H87" sqref="H87"/>
+      <selection pane="bottomRight" activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="3"/>
-    <col min="2" max="2" width="24.85546875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="14.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.83203125" style="3"/>
+    <col min="2" max="2" width="24.83203125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="27" style="3" customWidth="1"/>
     <col min="5" max="5" width="14" style="3" customWidth="1"/>
-    <col min="6" max="6" width="18.28515625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="12.42578125" style="3" customWidth="1"/>
-    <col min="8" max="8" width="9.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="10.5703125" style="3" customWidth="1"/>
-    <col min="11" max="11" width="28.28515625" style="3" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="3"/>
+    <col min="6" max="6" width="18.33203125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="12.5" style="3" customWidth="1"/>
+    <col min="8" max="8" width="9.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="10.5" style="3" customWidth="1"/>
+    <col min="11" max="11" width="28.33203125" style="3" customWidth="1"/>
+    <col min="12" max="16384" width="8.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="6" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" s="6" customFormat="1" ht="45" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6920,7 +6961,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="15" customHeight="1">
       <c r="A2" s="3" t="s">
         <v>606</v>
       </c>
@@ -6934,7 +6975,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="15" customHeight="1">
       <c r="A3" s="3" t="s">
         <v>379</v>
       </c>
@@ -6960,7 +7001,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="15" customHeight="1">
       <c r="A4" s="3" t="s">
         <v>384</v>
       </c>
@@ -6977,7 +7018,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="15" customHeight="1">
       <c r="A5" s="3" t="s">
         <v>618</v>
       </c>
@@ -6994,7 +7035,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="15" customHeight="1">
       <c r="A6" s="3" t="s">
         <v>387</v>
       </c>
@@ -7011,7 +7052,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="15" customHeight="1">
       <c r="A7" s="3" t="s">
         <v>621</v>
       </c>
@@ -7028,7 +7069,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="15" customHeight="1">
       <c r="A8" s="3" t="s">
         <v>624</v>
       </c>
@@ -7045,7 +7086,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="15" customHeight="1">
       <c r="A9" s="3" t="s">
         <v>627</v>
       </c>
@@ -7062,7 +7103,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="15" customHeight="1">
       <c r="A10" s="3" t="s">
         <v>390</v>
       </c>
@@ -7088,7 +7129,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="15" customHeight="1">
       <c r="A11" s="3" t="s">
         <v>597</v>
       </c>
@@ -7102,7 +7143,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="15" customHeight="1">
       <c r="A12" s="3" t="s">
         <v>630</v>
       </c>
@@ -7119,7 +7160,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="15" customHeight="1">
       <c r="A13" s="3" t="s">
         <v>609</v>
       </c>
@@ -7133,7 +7174,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" ht="15" customHeight="1">
       <c r="A14" s="3" t="s">
         <v>395</v>
       </c>
@@ -7147,7 +7188,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" ht="15" customHeight="1">
       <c r="A15" s="3" t="s">
         <v>398</v>
       </c>
@@ -7161,7 +7202,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" ht="15" customHeight="1">
       <c r="A16" s="3" t="s">
         <v>401</v>
       </c>
@@ -7175,7 +7216,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="15" customHeight="1">
       <c r="A17" s="3" t="s">
         <v>404</v>
       </c>
@@ -7189,7 +7230,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="15" customHeight="1">
       <c r="A18" s="3" t="s">
         <v>407</v>
       </c>
@@ -7203,7 +7244,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="15" customHeight="1">
       <c r="A19" s="3" t="s">
         <v>410</v>
       </c>
@@ -7217,7 +7258,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="15" customHeight="1">
       <c r="A20" s="3" t="s">
         <v>413</v>
       </c>
@@ -7231,7 +7272,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" ht="15" customHeight="1">
       <c r="A21" s="3" t="s">
         <v>416</v>
       </c>
@@ -7245,7 +7286,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" ht="15" customHeight="1">
       <c r="A22" s="3" t="s">
         <v>419</v>
       </c>
@@ -7259,7 +7300,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" ht="15" customHeight="1">
       <c r="A23" s="3" t="s">
         <v>422</v>
       </c>
@@ -7273,7 +7314,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="15" customHeight="1">
       <c r="A24" s="3" t="s">
         <v>425</v>
       </c>
@@ -7287,7 +7328,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" ht="15" customHeight="1">
       <c r="A25" s="3" t="s">
         <v>428</v>
       </c>
@@ -7301,7 +7342,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" ht="15" customHeight="1">
       <c r="A26" s="3" t="s">
         <v>431</v>
       </c>
@@ -7315,7 +7356,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" ht="15" customHeight="1">
       <c r="A27" s="3" t="s">
         <v>434</v>
       </c>
@@ -7329,7 +7370,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" ht="15" customHeight="1">
       <c r="A28" s="3" t="s">
         <v>437</v>
       </c>
@@ -7343,7 +7384,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" ht="15" customHeight="1">
       <c r="A29" s="3" t="s">
         <v>440</v>
       </c>
@@ -7357,7 +7398,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" ht="15" customHeight="1">
       <c r="A30" s="3" t="s">
         <v>443</v>
       </c>
@@ -7371,7 +7412,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" ht="15" customHeight="1">
       <c r="A31" s="3" t="s">
         <v>446</v>
       </c>
@@ -7385,7 +7426,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" ht="15" customHeight="1">
       <c r="A32" s="3" t="s">
         <v>449</v>
       </c>
@@ -7399,7 +7440,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="33" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" ht="15" customHeight="1">
       <c r="A33" s="3" t="s">
         <v>452</v>
       </c>
@@ -7413,7 +7454,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="34" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" ht="15" customHeight="1">
       <c r="A34" s="3" t="s">
         <v>455</v>
       </c>
@@ -7439,7 +7480,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="35" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" ht="15" customHeight="1">
       <c r="A35" s="3" t="s">
         <v>460</v>
       </c>
@@ -7465,7 +7506,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="36" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" ht="15" customHeight="1">
       <c r="A36" s="3" t="s">
         <v>465</v>
       </c>
@@ -7491,7 +7532,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="37" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" ht="15" customHeight="1">
       <c r="A37" s="3" t="s">
         <v>585</v>
       </c>
@@ -7508,7 +7549,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="38" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" ht="15" customHeight="1">
       <c r="A38" s="3" t="s">
         <v>633</v>
       </c>
@@ -7525,7 +7566,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="39" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" ht="15" customHeight="1">
       <c r="A39" s="3" t="s">
         <v>636</v>
       </c>
@@ -7542,7 +7583,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="40" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" ht="15" customHeight="1">
       <c r="A40" s="3" t="s">
         <v>639</v>
       </c>
@@ -7559,7 +7600,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="41" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" ht="15" customHeight="1">
       <c r="A41" s="3" t="s">
         <v>612</v>
       </c>
@@ -7573,7 +7614,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="42" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" ht="15" customHeight="1">
       <c r="A42" s="3" t="s">
         <v>470</v>
       </c>
@@ -7599,7 +7640,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="43" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" ht="15" customHeight="1">
       <c r="A43" s="3" t="s">
         <v>475</v>
       </c>
@@ -7625,7 +7666,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="44" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" ht="15" customHeight="1">
       <c r="A44" s="3" t="s">
         <v>591</v>
       </c>
@@ -7639,7 +7680,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="45" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" ht="15" customHeight="1">
       <c r="A45" s="3" t="s">
         <v>642</v>
       </c>
@@ -7656,7 +7697,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="46" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" ht="15" customHeight="1">
       <c r="A46" s="3" t="s">
         <v>480</v>
       </c>
@@ -7682,7 +7723,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="47" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" ht="15" customHeight="1">
       <c r="A47" s="3" t="s">
         <v>594</v>
       </c>
@@ -7696,7 +7737,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="48" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" ht="15" customHeight="1">
       <c r="A48" s="3" t="s">
         <v>645</v>
       </c>
@@ -7713,7 +7754,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="49" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" ht="15" customHeight="1">
       <c r="A49" s="3" t="s">
         <v>588</v>
       </c>
@@ -7727,7 +7768,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="50" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" ht="15" customHeight="1">
       <c r="A50" s="3" t="s">
         <v>485</v>
       </c>
@@ -7753,7 +7794,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="51" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" ht="15" customHeight="1">
       <c r="A51" s="3" t="s">
         <v>648</v>
       </c>
@@ -7770,7 +7811,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="52" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" ht="15" customHeight="1">
       <c r="A52" s="3" t="s">
         <v>651</v>
       </c>
@@ -7787,7 +7828,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="53" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" ht="15" customHeight="1">
       <c r="A53" s="3" t="s">
         <v>654</v>
       </c>
@@ -7804,7 +7845,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="54" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" ht="15" customHeight="1">
       <c r="A54" s="3" t="s">
         <v>490</v>
       </c>
@@ -7830,7 +7871,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="55" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" ht="15" customHeight="1">
       <c r="A55" s="3" t="s">
         <v>600</v>
       </c>
@@ -7844,7 +7885,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="56" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" ht="15" customHeight="1">
       <c r="A56" s="3" t="s">
         <v>495</v>
       </c>
@@ -7870,7 +7911,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="57" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" ht="15" customHeight="1">
       <c r="A57" s="3" t="s">
         <v>500</v>
       </c>
@@ -7896,7 +7937,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="58" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" ht="15" customHeight="1">
       <c r="A58" s="3" t="s">
         <v>504</v>
       </c>
@@ -7922,7 +7963,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="59" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" ht="15" customHeight="1">
       <c r="A59" s="3" t="s">
         <v>508</v>
       </c>
@@ -7948,7 +7989,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="60" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" ht="15" customHeight="1">
       <c r="A60" s="3" t="s">
         <v>513</v>
       </c>
@@ -7974,7 +8015,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="61" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" ht="15" customHeight="1">
       <c r="A61" s="3" t="s">
         <v>518</v>
       </c>
@@ -8000,7 +8041,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="62" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" ht="15" customHeight="1">
       <c r="A62" s="3" t="s">
         <v>657</v>
       </c>
@@ -8017,7 +8058,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="63" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" ht="15" customHeight="1">
       <c r="A63" s="3" t="s">
         <v>603</v>
       </c>
@@ -8034,7 +8075,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="64" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" ht="15" customHeight="1">
       <c r="A64" s="3" t="s">
         <v>522</v>
       </c>
@@ -8060,7 +8101,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="65" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" ht="15" customHeight="1">
       <c r="A65" s="3" t="s">
         <v>660</v>
       </c>
@@ -8077,7 +8118,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="66" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" ht="15" customHeight="1">
       <c r="A66" s="3" t="s">
         <v>527</v>
       </c>
@@ -8094,7 +8135,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="67" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" ht="15" customHeight="1">
       <c r="A67" s="3" t="s">
         <v>530</v>
       </c>
@@ -8120,7 +8161,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="68" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" ht="15" customHeight="1">
       <c r="A68" s="3" t="s">
         <v>535</v>
       </c>
@@ -8146,7 +8187,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="69" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" ht="15" customHeight="1">
       <c r="A69" s="3" t="s">
         <v>539</v>
       </c>
@@ -8172,7 +8213,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="70" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" ht="15" customHeight="1">
       <c r="A70" s="3" t="s">
         <v>543</v>
       </c>
@@ -8189,7 +8230,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="71" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" ht="15" customHeight="1">
       <c r="A71" s="3" t="s">
         <v>546</v>
       </c>
@@ -8215,7 +8256,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="72" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" ht="15" customHeight="1">
       <c r="A72" s="3" t="s">
         <v>551</v>
       </c>
@@ -8241,7 +8282,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="73" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" ht="15" customHeight="1">
       <c r="A73" s="3" t="s">
         <v>663</v>
       </c>
@@ -8258,7 +8299,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" ht="15" customHeight="1">
       <c r="A74" s="3" t="s">
         <v>556</v>
       </c>
@@ -8272,7 +8313,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="75" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" ht="15" customHeight="1">
       <c r="A75" s="3" t="s">
         <v>666</v>
       </c>
@@ -8289,7 +8330,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="76" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" ht="15" customHeight="1">
       <c r="A76" s="3" t="s">
         <v>559</v>
       </c>
@@ -8306,7 +8347,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" ht="15" customHeight="1">
       <c r="A77" s="3" t="s">
         <v>562</v>
       </c>
@@ -8323,7 +8364,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="78" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" ht="15" customHeight="1">
       <c r="A78" s="3" t="s">
         <v>565</v>
       </c>
@@ -8340,7 +8381,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" ht="15" customHeight="1">
       <c r="A79" s="3" t="s">
         <v>669</v>
       </c>
@@ -8357,7 +8398,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="80" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" ht="15" customHeight="1">
       <c r="A80" s="3" t="s">
         <v>672</v>
       </c>
@@ -8374,7 +8415,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" ht="15" customHeight="1">
       <c r="A81" s="3" t="s">
         <v>568</v>
       </c>
@@ -8400,7 +8441,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" ht="15" customHeight="1">
       <c r="A82" s="3" t="s">
         <v>573</v>
       </c>
@@ -8426,7 +8467,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="83" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" ht="15" customHeight="1">
       <c r="A83" s="3" t="s">
         <v>577</v>
       </c>
@@ -8452,7 +8493,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="84" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" ht="15" customHeight="1">
       <c r="A84" s="3" t="s">
         <v>582</v>
       </c>
@@ -8469,7 +8510,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" ht="15" customHeight="1">
       <c r="A85" s="3" t="s">
         <v>615</v>
       </c>
@@ -8483,7 +8524,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="86" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" ht="15" customHeight="1">
       <c r="A86" s="3" t="s">
         <v>675</v>
       </c>
@@ -8500,7 +8541,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" ht="15" customHeight="1">
       <c r="A87" s="3" t="s">
         <v>1091</v>
       </c>
@@ -8514,7 +8555,7 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" ht="15" customHeight="1">
       <c r="A88" s="3" t="s">
         <v>689</v>
       </c>
@@ -8543,7 +8584,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" ht="15" customHeight="1">
       <c r="A89" s="3" t="s">
         <v>692</v>
       </c>
@@ -8572,7 +8613,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="90" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" ht="15" customHeight="1">
       <c r="A90" s="3" t="s">
         <v>695</v>
       </c>
@@ -8601,7 +8642,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="91" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" ht="15" customHeight="1">
       <c r="A91" s="3" t="s">
         <v>698</v>
       </c>
@@ -8630,7 +8671,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="92" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" ht="15" customHeight="1">
       <c r="A92" s="3" t="s">
         <v>701</v>
       </c>
@@ -8659,7 +8700,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" ht="15" customHeight="1">
       <c r="A93" s="3" t="s">
         <v>704</v>
       </c>
@@ -8688,7 +8729,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="94" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" ht="15" customHeight="1">
       <c r="A94" s="3" t="s">
         <v>710</v>
       </c>
@@ -8717,7 +8758,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="95" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" ht="15" customHeight="1">
       <c r="A95" s="3" t="s">
         <v>713</v>
       </c>
@@ -8746,7 +8787,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="96" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" ht="15" customHeight="1">
       <c r="A96" s="3" t="s">
         <v>743</v>
       </c>
@@ -8775,7 +8816,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="97" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" ht="15" customHeight="1">
       <c r="A97" s="3" t="s">
         <v>716</v>
       </c>
@@ -8804,7 +8845,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="98" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" ht="15" customHeight="1">
       <c r="A98" s="3" t="s">
         <v>719</v>
       </c>
@@ -8833,7 +8874,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="99" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" ht="15" customHeight="1">
       <c r="A99" s="3" t="s">
         <v>767</v>
       </c>
@@ -8862,7 +8903,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="100" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" ht="15" customHeight="1">
       <c r="A100" s="3" t="s">
         <v>722</v>
       </c>
@@ -8891,7 +8932,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="101" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" ht="15" customHeight="1">
       <c r="A101" s="3" t="s">
         <v>725</v>
       </c>
@@ -8920,7 +8961,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="102" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" ht="15" customHeight="1">
       <c r="A102" s="3" t="s">
         <v>728</v>
       </c>
@@ -8949,7 +8990,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="103" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" ht="15" customHeight="1">
       <c r="A103" s="3" t="s">
         <v>707</v>
       </c>
@@ -8978,7 +9019,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="104" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" ht="15" customHeight="1">
       <c r="A104" s="3" t="s">
         <v>764</v>
       </c>
@@ -9007,7 +9048,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="105" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" ht="15" customHeight="1">
       <c r="A105" s="3" t="s">
         <v>731</v>
       </c>
@@ -9036,7 +9077,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="106" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" ht="15" customHeight="1">
       <c r="A106" s="3" t="s">
         <v>734</v>
       </c>
@@ -9065,7 +9106,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="107" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" ht="15" customHeight="1">
       <c r="A107" s="3" t="s">
         <v>761</v>
       </c>
@@ -9094,7 +9135,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="108" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" ht="15" customHeight="1">
       <c r="A108" s="3" t="s">
         <v>737</v>
       </c>
@@ -9123,7 +9164,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="109" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" ht="15" customHeight="1">
       <c r="A109" s="3" t="s">
         <v>755</v>
       </c>
@@ -9152,7 +9193,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="110" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" ht="15" customHeight="1">
       <c r="A110" s="3" t="s">
         <v>683</v>
       </c>
@@ -9181,7 +9222,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="111" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" ht="15" customHeight="1">
       <c r="A111" s="3" t="s">
         <v>678</v>
       </c>
@@ -9210,7 +9251,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="112" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" ht="15" customHeight="1">
       <c r="A112" s="3" t="s">
         <v>686</v>
       </c>
@@ -9239,7 +9280,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="113" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" ht="15" customHeight="1">
       <c r="A113" s="3" t="s">
         <v>740</v>
       </c>
@@ -9268,7 +9309,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="114" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" ht="15" customHeight="1">
       <c r="A114" s="3" t="s">
         <v>746</v>
       </c>
@@ -9297,7 +9338,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="115" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" ht="15" customHeight="1">
       <c r="A115" s="3" t="s">
         <v>749</v>
       </c>
@@ -9326,7 +9367,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="116" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" ht="15" customHeight="1">
       <c r="A116" s="3" t="s">
         <v>752</v>
       </c>
@@ -9355,7 +9396,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="117" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" ht="15" customHeight="1">
       <c r="A117" s="3" t="s">
         <v>758</v>
       </c>
@@ -9384,7 +9425,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="118" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" ht="15" customHeight="1">
       <c r="A118" s="3" t="s">
         <v>782</v>
       </c>
@@ -9413,7 +9454,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="119" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" ht="15" customHeight="1">
       <c r="A119" s="3" t="s">
         <v>786</v>
       </c>
@@ -9442,7 +9483,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="120" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" ht="15" customHeight="1">
       <c r="A120" s="3" t="s">
         <v>790</v>
       </c>
@@ -9471,7 +9512,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="121" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" ht="15" customHeight="1">
       <c r="A121" s="3" t="s">
         <v>794</v>
       </c>
@@ -9500,7 +9541,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="122" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" ht="15" customHeight="1">
       <c r="A122" s="3" t="s">
         <v>798</v>
       </c>
@@ -9529,7 +9570,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="123" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" ht="15" customHeight="1">
       <c r="A123" s="3" t="s">
         <v>802</v>
       </c>
@@ -9558,7 +9599,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="124" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" ht="15" customHeight="1">
       <c r="A124" s="3" t="s">
         <v>810</v>
       </c>
@@ -9587,7 +9628,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="125" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" ht="15" customHeight="1">
       <c r="A125" s="3" t="s">
         <v>814</v>
       </c>
@@ -9616,7 +9657,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="126" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" ht="15" customHeight="1">
       <c r="A126" s="3" t="s">
         <v>854</v>
       </c>
@@ -9645,7 +9686,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="127" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" ht="15" customHeight="1">
       <c r="A127" s="3" t="s">
         <v>818</v>
       </c>
@@ -9674,7 +9715,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="128" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" ht="15" customHeight="1">
       <c r="A128" s="3" t="s">
         <v>822</v>
       </c>
@@ -9703,7 +9744,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="129" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" ht="15" customHeight="1">
       <c r="A129" s="3" t="s">
         <v>886</v>
       </c>
@@ -9732,7 +9773,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="130" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" ht="15" customHeight="1">
       <c r="A130" s="3" t="s">
         <v>826</v>
       </c>
@@ -9761,7 +9802,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="131" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" ht="15" customHeight="1">
       <c r="A131" s="3" t="s">
         <v>830</v>
       </c>
@@ -9790,7 +9831,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="132" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" ht="15" customHeight="1">
       <c r="A132" s="3" t="s">
         <v>834</v>
       </c>
@@ -9819,7 +9860,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="133" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" ht="15" customHeight="1">
       <c r="A133" s="3" t="s">
         <v>806</v>
       </c>
@@ -9848,7 +9889,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="134" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" ht="15" customHeight="1">
       <c r="A134" s="3" t="s">
         <v>882</v>
       </c>
@@ -9877,7 +9918,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="135" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" ht="15" customHeight="1">
       <c r="A135" s="3" t="s">
         <v>838</v>
       </c>
@@ -9906,7 +9947,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="136" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" ht="15" customHeight="1">
       <c r="A136" s="3" t="s">
         <v>842</v>
       </c>
@@ -9935,7 +9976,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="137" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" ht="15" customHeight="1">
       <c r="A137" s="3" t="s">
         <v>878</v>
       </c>
@@ -9964,7 +10005,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="138" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11" ht="15" customHeight="1">
       <c r="A138" s="3" t="s">
         <v>846</v>
       </c>
@@ -9993,7 +10034,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="139" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" ht="15" customHeight="1">
       <c r="A139" s="3" t="s">
         <v>870</v>
       </c>
@@ -10022,7 +10063,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="140" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11" ht="15" customHeight="1">
       <c r="A140" s="3" t="s">
         <v>774</v>
       </c>
@@ -10051,7 +10092,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="141" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11" ht="15" customHeight="1">
       <c r="A141" s="3" t="s">
         <v>770</v>
       </c>
@@ -10080,7 +10121,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="142" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11" ht="15" customHeight="1">
       <c r="A142" s="3" t="s">
         <v>778</v>
       </c>
@@ -10109,7 +10150,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="143" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:11" ht="15" customHeight="1">
       <c r="A143" s="3" t="s">
         <v>850</v>
       </c>
@@ -10138,7 +10179,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="144" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:11" ht="15" customHeight="1">
       <c r="A144" s="3" t="s">
         <v>858</v>
       </c>
@@ -10167,7 +10208,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="145" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11" ht="15" customHeight="1">
       <c r="A145" s="3" t="s">
         <v>862</v>
       </c>
@@ -10196,7 +10237,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="146" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11" ht="15" customHeight="1">
       <c r="A146" s="3" t="s">
         <v>866</v>
       </c>
@@ -10225,7 +10266,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="147" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11" ht="15" customHeight="1">
       <c r="A147" s="3" t="s">
         <v>874</v>
       </c>
@@ -10254,7 +10295,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="148" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11" ht="15" customHeight="1">
       <c r="A148" s="3" t="s">
         <v>903</v>
       </c>
@@ -10283,7 +10324,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="149" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:11" ht="15" customHeight="1">
       <c r="A149" s="3" t="s">
         <v>907</v>
       </c>
@@ -10312,7 +10353,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="150" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11" ht="15" customHeight="1">
       <c r="A150" s="3" t="s">
         <v>911</v>
       </c>
@@ -10341,7 +10382,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="151" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:11" ht="15" customHeight="1">
       <c r="A151" s="3" t="s">
         <v>915</v>
       </c>
@@ -10370,7 +10411,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="152" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:11" ht="15" customHeight="1">
       <c r="A152" s="3" t="s">
         <v>919</v>
       </c>
@@ -10399,7 +10440,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="153" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:11" ht="15" customHeight="1">
       <c r="A153" s="3" t="s">
         <v>923</v>
       </c>
@@ -10428,7 +10469,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="154" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:11" ht="15" customHeight="1">
       <c r="A154" s="3" t="s">
         <v>931</v>
       </c>
@@ -10457,7 +10498,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="155" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:11" ht="15" customHeight="1">
       <c r="A155" s="3" t="s">
         <v>935</v>
       </c>
@@ -10486,7 +10527,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="156" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11" ht="15" customHeight="1">
       <c r="A156" s="3" t="s">
         <v>975</v>
       </c>
@@ -10515,7 +10556,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="157" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:11" ht="15" customHeight="1">
       <c r="A157" s="3" t="s">
         <v>939</v>
       </c>
@@ -10544,7 +10585,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="158" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:11" ht="15" customHeight="1">
       <c r="A158" s="3" t="s">
         <v>943</v>
       </c>
@@ -10573,7 +10614,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="159" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:11" ht="15" customHeight="1">
       <c r="A159" s="3" t="s">
         <v>1007</v>
       </c>
@@ -10602,7 +10643,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="160" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:11" ht="15" customHeight="1">
       <c r="A160" s="3" t="s">
         <v>947</v>
       </c>
@@ -10631,7 +10672,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="161" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:11" ht="15" customHeight="1">
       <c r="A161" s="3" t="s">
         <v>951</v>
       </c>
@@ -10660,7 +10701,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="162" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:11" ht="15" customHeight="1">
       <c r="A162" s="3" t="s">
         <v>955</v>
       </c>
@@ -10689,7 +10730,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="163" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:11" ht="15" customHeight="1">
       <c r="A163" s="3" t="s">
         <v>927</v>
       </c>
@@ -10718,7 +10759,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="164" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:11" ht="15" customHeight="1">
       <c r="A164" s="3" t="s">
         <v>1003</v>
       </c>
@@ -10747,7 +10788,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="165" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:11" ht="15" customHeight="1">
       <c r="A165" s="3" t="s">
         <v>959</v>
       </c>
@@ -10776,7 +10817,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="166" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:11" ht="15" customHeight="1">
       <c r="A166" s="3" t="s">
         <v>963</v>
       </c>
@@ -10805,7 +10846,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="167" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:11" ht="15" customHeight="1">
       <c r="A167" s="3" t="s">
         <v>999</v>
       </c>
@@ -10834,7 +10875,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="168" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:11" ht="15" customHeight="1">
       <c r="A168" s="3" t="s">
         <v>967</v>
       </c>
@@ -10863,7 +10904,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="169" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:11" ht="15" customHeight="1">
       <c r="A169" s="3" t="s">
         <v>991</v>
       </c>
@@ -10892,7 +10933,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="170" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:11" ht="15" customHeight="1">
       <c r="A170" s="3" t="s">
         <v>895</v>
       </c>
@@ -10921,7 +10962,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="171" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:11" ht="15" customHeight="1">
       <c r="A171" s="3" t="s">
         <v>890</v>
       </c>
@@ -10950,7 +10991,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="172" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:11" ht="15" customHeight="1">
       <c r="A172" s="3" t="s">
         <v>899</v>
       </c>
@@ -10979,7 +11020,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="173" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:11" ht="15" customHeight="1">
       <c r="A173" s="3" t="s">
         <v>971</v>
       </c>
@@ -11008,7 +11049,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="174" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:11" ht="15" customHeight="1">
       <c r="A174" s="3" t="s">
         <v>979</v>
       </c>
@@ -11037,7 +11078,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="175" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:11" ht="15" customHeight="1">
       <c r="A175" s="3" t="s">
         <v>983</v>
       </c>
@@ -11066,7 +11107,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="176" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:11" ht="15" customHeight="1">
       <c r="A176" s="3" t="s">
         <v>987</v>
       </c>
@@ -11095,7 +11136,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="177" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:11" ht="15" customHeight="1">
       <c r="A177" s="3" t="s">
         <v>995</v>
       </c>
@@ -11132,6 +11173,12 @@
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -11146,18 +11193,18 @@
       <selection pane="bottomRight" activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="22.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="41.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="47.140625" style="3" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" width="22.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="47.1640625" style="3" customWidth="1"/>
+    <col min="7" max="16384" width="8.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" s="6" customFormat="1" ht="15" customHeight="1">
       <c r="A1" s="1" t="str">
         <f>Submodels!$A$1</f>
         <v>ID</v>
@@ -11178,7 +11225,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15" customHeight="1">
       <c r="A2" s="3" t="s">
         <v>1013</v>
       </c>
@@ -11192,7 +11239,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="15" customHeight="1">
       <c r="A3" s="3" t="s">
         <v>1016</v>
       </c>
@@ -11206,7 +11253,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="15" customHeight="1">
       <c r="A4" s="3" t="s">
         <v>1018</v>
       </c>
@@ -11226,7 +11273,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="15" customHeight="1">
       <c r="A5" s="3" t="s">
         <v>1022</v>
       </c>
@@ -11246,7 +11293,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="15" customHeight="1">
       <c r="A6" s="3" t="s">
         <v>1025</v>
       </c>
@@ -11266,6 +11313,11 @@
   </sheetData>
   <autoFilter ref="A1:F6"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -11280,16 +11332,16 @@
       <selection pane="bottomRight" activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="8.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" style="3" customWidth="1"/>
-    <col min="3" max="4" width="15.28515625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="30.28515625" style="3" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" width="8.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" style="3" customWidth="1"/>
+    <col min="3" max="4" width="15.33203125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="30.33203125" style="3" customWidth="1"/>
+    <col min="6" max="16384" width="8.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" s="6" customFormat="1" ht="30" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -11306,7 +11358,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="15" customHeight="1">
       <c r="A2" s="3" t="s">
         <v>1029</v>
       </c>
@@ -11320,7 +11372,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="15" customHeight="1">
       <c r="A3" s="3" t="s">
         <v>1033</v>
       </c>
@@ -11334,7 +11386,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="15" customHeight="1">
       <c r="A4" s="3" t="s">
         <v>1036</v>
       </c>
@@ -11351,7 +11403,7 @@
         <v>1039</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="15" customHeight="1">
       <c r="A5" s="3" t="s">
         <v>1040</v>
       </c>
@@ -11365,7 +11417,7 @@
         <v>1042</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="15" customHeight="1">
       <c r="A6" s="3" t="s">
         <v>1043</v>
       </c>
@@ -11379,7 +11431,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="15" customHeight="1">
       <c r="A7" s="3" t="s">
         <v>1046</v>
       </c>
@@ -11393,7 +11445,7 @@
         <v>815332823</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="15" customHeight="1">
       <c r="A8" s="3" t="s">
         <v>1049</v>
       </c>
@@ -11407,7 +11459,7 @@
         <v>1051</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="15" customHeight="1">
       <c r="A9" s="3" t="s">
         <v>1052</v>
       </c>
@@ -11421,7 +11473,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="15" customHeight="1">
       <c r="A10" s="3" t="s">
         <v>1055</v>
       </c>
@@ -11435,7 +11487,7 @@
         <v>1057</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="15" customHeight="1">
       <c r="A11" s="3" t="s">
         <v>1058</v>
       </c>
@@ -11449,7 +11501,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="15" customHeight="1">
       <c r="A12" s="3" t="s">
         <v>1061</v>
       </c>
@@ -11463,7 +11515,7 @@
         <v>1063</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="15" customHeight="1">
       <c r="A13" s="3" t="s">
         <v>1064</v>
       </c>
@@ -11477,7 +11529,7 @@
         <v>33184</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="15" customHeight="1">
       <c r="A14" s="3" t="s">
         <v>1067</v>
       </c>
@@ -11491,7 +11543,7 @@
         <v>1081</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="15" customHeight="1">
       <c r="A15" s="3" t="s">
         <v>1068</v>
       </c>
@@ -11505,7 +11557,7 @@
         <v>1082</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="15" customHeight="1">
       <c r="A16" s="3" t="s">
         <v>1069</v>
       </c>
@@ -11519,7 +11571,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="15" customHeight="1">
       <c r="A17" s="3" t="s">
         <v>1070</v>
       </c>
@@ -11533,7 +11585,7 @@
         <v>1076</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="15" customHeight="1">
       <c r="A18" s="3" t="s">
         <v>1071</v>
       </c>
@@ -11547,7 +11599,7 @@
         <v>1077</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="15" customHeight="1">
       <c r="A19" s="3" t="s">
         <v>1072</v>
       </c>
@@ -11561,7 +11613,7 @@
         <v>1078</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="15" customHeight="1">
       <c r="A20" s="3" t="s">
         <v>1073</v>
       </c>
@@ -11578,5 +11630,10 @@
   </sheetData>
   <autoFilter ref="A1:E20"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>